--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_520.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_520.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d279768-Reviews-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Anaheim-CA.h4702318.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_520.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_520.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,664 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r527822933-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>279768</t>
+  </si>
+  <si>
+    <t>527822933</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Terrible customer service</t>
+  </si>
+  <si>
+    <t>The receptionist at this place needs sacking, seriously. We booked two nights on booking.com and drove from San Fran to LA, arriving quite late at night. Had to speak to the guy through the night window, he rudely asked for our names, he said he didn't have our names down. So we brought up booking.com on our phone &amp; showed him the booking, he said he didn't care &amp; that he didn't have the booking. We explained that we had been driving for 8 hours &amp; we had the booking for him to see. He literally could not have been any ruder, said he did not have our booking. I asked if we could book for two nights &amp; he very bluntly said no &amp; walked away. Absolutely disgusting behaviour, do not stay at this motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Anaheim, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>The receptionist at this place needs sacking, seriously. We booked two nights on booking.com and drove from San Fran to LA, arriving quite late at night. Had to speak to the guy through the night window, he rudely asked for our names, he said he didn't have our names down. So we brought up booking.com on our phone &amp; showed him the booking, he said he didn't care &amp; that he didn't have the booking. We explained that we had been driving for 8 hours &amp; we had the booking for him to see. He literally could not have been any ruder, said he did not have our booking. I asked if we could book for two nights &amp; he very bluntly said no &amp; walked away. Absolutely disgusting behaviour, do not stay at this motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r504220956-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>504220956</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Terrible Surprises</t>
+  </si>
+  <si>
+    <t>We booked this hotel at the last minute. I booked a cheap room compared to other prices in the area.  However, they charge for WiFi and 5 bucks for the shuttle to Disneyland.  No breakfast.  They did have a decent vending machine that sold stuff to eat and provided 2 microwaves next to vending machines to heat up items like burritos.  the shower was terrible.  It had barely any water pressure.  The beds were old and you could tell you they were old spring beds.  The AC worked to cool the room.  the problem was that the AC didn't dehumidify so it was humid though cool in the room.  So the bed sheets felt a little damp.  Parking was easy.  Location in proximity to Disneyland was awesome.  The staff was very helpful, but they sounded frustrated that they couldn't do more it felt like.  Room and lobby were very clean.  The pool was nice and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We booked this hotel at the last minute. I booked a cheap room compared to other prices in the area.  However, they charge for WiFi and 5 bucks for the shuttle to Disneyland.  No breakfast.  They did have a decent vending machine that sold stuff to eat and provided 2 microwaves next to vending machines to heat up items like burritos.  the shower was terrible.  It had barely any water pressure.  The beds were old and you could tell you they were old spring beds.  The AC worked to cool the room.  the problem was that the AC didn't dehumidify so it was humid though cool in the room.  So the bed sheets felt a little damp.  Parking was easy.  Location in proximity to Disneyland was awesome.  The staff was very helpful, but they sounded frustrated that they couldn't do more it felt like.  Room and lobby were very clean.  The pool was nice and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r485978154-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>485978154</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>worse than 1 star</t>
+  </si>
+  <si>
+    <t>Don't reserve w/ motel 6. A nightmare! I reserved 2 rooms online. they cancelled both while my friends were driving down from SF late at night. First, they said it was because it "was a 3rd party transaction and they don't take these" (though I made it from Motel 6's website, and it was clear I was the person who's cc it was, but not the person who would be checking in.)  After arguing about this absurdity, the manager said I could try the 800 no. They intervened and after over an hour on the phone, they re-reserved the two rooms (costing more and one room now had to be smoking, but I agreed). I had the 800 person even call the manager before i got off with her, to confirm we were again on. Then, three hours later the manager called again to say, again, he cancelled the reservations. This time he claimed it was because the visa had not gone through. This was a total fabrication. (Later, the 800 person at Motel 6 agreed it was likely because they overbooked or he was able to get more for a room.) I learned independently owned Motel 6's (which this is) are allowed to be very independent, ie, treat guests this way. Motel 6 referred me to "guest services" to resolve it, but oops, that dept is closed at nights and weekends (for a national motel chain!)! Of course it...Don't reserve w/ motel 6. A nightmare! I reserved 2 rooms online. they cancelled both while my friends were driving down from SF late at night. First, they said it was because it "was a 3rd party transaction and they don't take these" (though I made it from Motel 6's website, and it was clear I was the person who's cc it was, but not the person who would be checking in.)  After arguing about this absurdity, the manager said I could try the 800 no. They intervened and after over an hour on the phone, they re-reserved the two rooms (costing more and one room now had to be smoking, but I agreed). I had the 800 person even call the manager before i got off with her, to confirm we were again on. Then, three hours later the manager called again to say, again, he cancelled the reservations. This time he claimed it was because the visa had not gone through. This was a total fabrication. (Later, the 800 person at Motel 6 agreed it was likely because they overbooked or he was able to get more for a room.) I learned independently owned Motel 6's (which this is) are allowed to be very independent, ie, treat guests this way. Motel 6 referred me to "guest services" to resolve it, but oops, that dept is closed at nights and weekends (for a national motel chain!)! Of course it didn't help me that night and my friends were stuck when they hit the area with no motel to stay in.  When I called the next day guest relations,, they could care less about the inconvenience it caused but said she would "pass on my feedback"  My feedback - when you have a national chain which doesn't stand by any promises, if you're a traveler, go elsewhere,where they're professional. Silver lining: I found a national chain down there for slightly more money, way more amenities and the trip overall was much better than had they stayed at Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Don't reserve w/ motel 6. A nightmare! I reserved 2 rooms online. they cancelled both while my friends were driving down from SF late at night. First, they said it was because it "was a 3rd party transaction and they don't take these" (though I made it from Motel 6's website, and it was clear I was the person who's cc it was, but not the person who would be checking in.)  After arguing about this absurdity, the manager said I could try the 800 no. They intervened and after over an hour on the phone, they re-reserved the two rooms (costing more and one room now had to be smoking, but I agreed). I had the 800 person even call the manager before i got off with her, to confirm we were again on. Then, three hours later the manager called again to say, again, he cancelled the reservations. This time he claimed it was because the visa had not gone through. This was a total fabrication. (Later, the 800 person at Motel 6 agreed it was likely because they overbooked or he was able to get more for a room.) I learned independently owned Motel 6's (which this is) are allowed to be very independent, ie, treat guests this way. Motel 6 referred me to "guest services" to resolve it, but oops, that dept is closed at nights and weekends (for a national motel chain!)! Of course it...Don't reserve w/ motel 6. A nightmare! I reserved 2 rooms online. they cancelled both while my friends were driving down from SF late at night. First, they said it was because it "was a 3rd party transaction and they don't take these" (though I made it from Motel 6's website, and it was clear I was the person who's cc it was, but not the person who would be checking in.)  After arguing about this absurdity, the manager said I could try the 800 no. They intervened and after over an hour on the phone, they re-reserved the two rooms (costing more and one room now had to be smoking, but I agreed). I had the 800 person even call the manager before i got off with her, to confirm we were again on. Then, three hours later the manager called again to say, again, he cancelled the reservations. This time he claimed it was because the visa had not gone through. This was a total fabrication. (Later, the 800 person at Motel 6 agreed it was likely because they overbooked or he was able to get more for a room.) I learned independently owned Motel 6's (which this is) are allowed to be very independent, ie, treat guests this way. Motel 6 referred me to "guest services" to resolve it, but oops, that dept is closed at nights and weekends (for a national motel chain!)! Of course it didn't help me that night and my friends were stuck when they hit the area with no motel to stay in.  When I called the next day guest relations,, they could care less about the inconvenience it caused but said she would "pass on my feedback"  My feedback - when you have a national chain which doesn't stand by any promises, if you're a traveler, go elsewhere,where they're professional. Silver lining: I found a national chain down there for slightly more money, way more amenities and the trip overall was much better than had they stayed at Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r464649684-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>464649684</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Nicer than expected and half the price as other pet friendly</t>
+  </si>
+  <si>
+    <t>Great location for going to Disneyland. Close enough we even stopped back at the hotel at lunchtime. Picked this because it was about half the price as Majestic which we had stayed at in December and that wasn't happening. Happy with Motel 6. Nice pool although we didn't use it because, well, DISNEYLAND!  But we had out pup with us so we needed a pet friendly and this was a decent enough room. Could have been a little cleaner/fresh but I think we opted for a popular room with "1st floor, pet friendly, near end of building" request. If you can go for a higher up room, the building was remodeled a couple years ago so maybe some better/less used rooms.Again, can't beat the location, if you have pets you can't beat the price (no pets fees, no parking fees! It adds up...) Disneyland has a daytime kennel just after you go through security ($20 a day and must visit and take dog out every 4 hours)A.C. worked good too. The other place didn't even have AC...Hope this helps you. Cheers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Great location for going to Disneyland. Close enough we even stopped back at the hotel at lunchtime. Picked this because it was about half the price as Majestic which we had stayed at in December and that wasn't happening. Happy with Motel 6. Nice pool although we didn't use it because, well, DISNEYLAND!  But we had out pup with us so we needed a pet friendly and this was a decent enough room. Could have been a little cleaner/fresh but I think we opted for a popular room with "1st floor, pet friendly, near end of building" request. If you can go for a higher up room, the building was remodeled a couple years ago so maybe some better/less used rooms.Again, can't beat the location, if you have pets you can't beat the price (no pets fees, no parking fees! It adds up...) Disneyland has a daytime kennel just after you go through security ($20 a day and must visit and take dog out every 4 hours)A.C. worked good too. The other place didn't even have AC...Hope this helps you. Cheers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r447774092-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>447774092</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Loved this place!</t>
+  </si>
+  <si>
+    <t>Friendly staff, parking was fine, room was clean, very affordable, and room was comfortable! I will definitely go back when I visit Anaheim again♡ we were going to stay three nights but my husband got home sick and they were very willing to help us out by taking a day away (: I can't wait to return hopefully sooner than later.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r437618053-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>437618053</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Parking an issue</t>
+  </si>
+  <si>
+    <t>I came here for a funeral with my family. The room was nice and clean, but it was like a maze to actually get into the parking lot and once we got into the parking lot, there was no place to park because every spot was taken. It was frustrating.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r398235842-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>398235842</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Two days at Disney</t>
+  </si>
+  <si>
+    <t>To start off with the cleanliness was very high in my lists of YES. The reason for the three stars goes beyond the place being clean. It is nice and remodels with not a stitch of carpet. Laminate floors and very minimal room furniture. In fact the two queen room we were in was a waste of open space with only two places to sit besides the bed. The clean look and feel is great but on a hot day the a/c could barely keep the room below 80. That was exasperated by the unit not being on at all when we checked in and then turned off when the room was cleaned the next day. The only two negatives for us was the shower did not drain well leaving you standing in about 5 inches of water during your shower, and the beds themselves. I almost pulled the mattress off he pedestal and  just slept on the hard surface. It would have been more comfortable. Hard to sleep. Overall the room was clean and quiet. Could not find anyone to explain this to when we checked out so just went back to the room and dropped the keys inside and left. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>To start off with the cleanliness was very high in my lists of YES. The reason for the three stars goes beyond the place being clean. It is nice and remodels with not a stitch of carpet. Laminate floors and very minimal room furniture. In fact the two queen room we were in was a waste of open space with only two places to sit besides the bed. The clean look and feel is great but on a hot day the a/c could barely keep the room below 80. That was exasperated by the unit not being on at all when we checked in and then turned off when the room was cleaned the next day. The only two negatives for us was the shower did not drain well leaving you standing in about 5 inches of water during your shower, and the beds themselves. I almost pulled the mattress off he pedestal and  just slept on the hard surface. It would have been more comfortable. Hard to sleep. Overall the room was clean and quiet. Could not find anyone to explain this to when we checked out so just went back to the room and dropped the keys inside and left. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r395308163-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>395308163</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Spur of the moment trip</t>
+  </si>
+  <si>
+    <t>We decided to take a trip to Disneyland at the last minute. I'd read the reviews and wasn't too hopeful, but most of the hotels close to the park were sold out and this location had 2 rooms with 2 queen beds which is what we needed. We arrived before check in time, so I wasn't surprised that both of the rooms weren't ready. The guy that checked us in seemed bored, but was efficient so it was fine. He gave us the keys to both rooms rooms, but said to give housekeeping a half hour for the second room to be finished. The rooms felt quite large due to not having much furniture. There was a mini fridge and WiFi for 1 device per room, but no shampoo, conditioner, or lotion. Overall the rooms were neat, but the blankets had old stains and burn holes. Housekeeping was friendly and remembered to bring extra towels for our second night, so we didn't have to ask again. The property is about 10 minutes from the Disney parks, and near several fast food places, and a grocery store. We spent almost no time in the room, the rates were low, and it had a great location. That's what really saved the rating. MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to take a trip to Disneyland at the last minute. I'd read the reviews and wasn't too hopeful, but most of the hotels close to the park were sold out and this location had 2 rooms with 2 queen beds which is what we needed. We arrived before check in time, so I wasn't surprised that both of the rooms weren't ready. The guy that checked us in seemed bored, but was efficient so it was fine. He gave us the keys to both rooms rooms, but said to give housekeeping a half hour for the second room to be finished. The rooms felt quite large due to not having much furniture. There was a mini fridge and WiFi for 1 device per room, but no shampoo, conditioner, or lotion. Overall the rooms were neat, but the blankets had old stains and burn holes. Housekeeping was friendly and remembered to bring extra towels for our second night, so we didn't have to ask again. The property is about 10 minutes from the Disney parks, and near several fast food places, and a grocery store. We spent almost no time in the room, the rates were low, and it had a great location. That's what really saved the rating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r389397418-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>389397418</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Great..</t>
+  </si>
+  <si>
+    <t>My reservation was little bit confused but the gentleman that was working that night resolved and worked in the reservation cause I was with my kids and we had a long day walking at disneyland the only thing was to relax and sleep. The gentleman find us a room with 2 beds the room was clean organize and neat. I was so happy staying there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r377794098-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>377794098</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>The best customer service I had on one of our many trips to Los Angeles!</t>
+  </si>
+  <si>
+    <t>I accidentally booked our room for the wrong night, showed up after a long day at the amusement park expecting to have a room and was told that it was reserved for the night before we got there. I was devastated (and exhausted). Without me saying anything or even asking for help figuring out what to do Michelle was on the phone with the manager trying to figure out how to help me get a room for the night and get the money for the no-show switched to tonight. Within 5 minutes we had our room key and we're heading off to bed. Our room is big, clean, and comfy. I am so thankful to Oscar and Michelle who really made our night wonderful. Thank you! This is where we are staying when we come to LAMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I accidentally booked our room for the wrong night, showed up after a long day at the amusement park expecting to have a room and was told that it was reserved for the night before we got there. I was devastated (and exhausted). Without me saying anything or even asking for help figuring out what to do Michelle was on the phone with the manager trying to figure out how to help me get a room for the night and get the money for the no-show switched to tonight. Within 5 minutes we had our room key and we're heading off to bed. Our room is big, clean, and comfy. I am so thankful to Oscar and Michelle who really made our night wonderful. Thank you! This is where we are staying when we come to LAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r347323045-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>347323045</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We did Disneyland on a budget and this was the perfect hotel to stay in for us! It was clean and comfy and the staff were so lovely. It was still Disney themed so was perfect for what we were looking for! A short walk to Disneyland and close to all the food places but still quiet enough for us to have a great sleep! The bed was amazingly comfortable and I would absolutely stay here again! </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r334520256-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>334520256</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Great location, great value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ten minute walk from Disney Land, this was a great stay for a reasonable price. Walking distance from many nice restaurants and shopping districts. As well as views of the Disney fire works from the hotel pool. Was easily accessible to come to and from the hotel during the day while at Disney. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r296192359-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>296192359</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>One night spent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad rooms. Clean but not very comfy. I found a cricket walking on the wall. Not very safe I think. Someone was hiding in the laundry room. I was trying to get my cloths from dryer and I noticed one guy in but was more like a homeless. One night we cam back at night and they checked us out... We couldn't use the keys so we went to them and they apologized for making a mistake. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r291917595-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>291917595</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>stay away</t>
+  </si>
+  <si>
+    <t>Came back after a full day at vidicon with my daughter.  Room had cigarette butts outside and the door was open.  Room smelled like cigarettes. Tried to air out the room, gave up and went to complain.  Roj the night manager fired back that I was in the room for 20 minutes, implying the complaint was false.stay there for another 3 nights with my daughter? nope.I decided to check out and find another motel.  Got serious attitude from Roj regarding refund, and there was major confusion on which credit to refund.  I asked Roj what the last 4 digits of the card used (honestly didn't remember) and gave him the card for refund - he claimed it was the wrong one.  but HE gave me the last 4.... scam? theft? or just plain old stupidity?I could have handled a room change, an apology and some effort to fix the issue... I got attitude, implication that I was wrong and stupidity.they certainly did not leave the light on for me....Holiday Inn Express... here I come.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Anaheim, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Came back after a full day at vidicon with my daughter.  Room had cigarette butts outside and the door was open.  Room smelled like cigarettes. Tried to air out the room, gave up and went to complain.  Roj the night manager fired back that I was in the room for 20 minutes, implying the complaint was false.stay there for another 3 nights with my daughter? nope.I decided to check out and find another motel.  Got serious attitude from Roj regarding refund, and there was major confusion on which credit to refund.  I asked Roj what the last 4 digits of the card used (honestly didn't remember) and gave him the card for refund - he claimed it was the wrong one.  but HE gave me the last 4.... scam? theft? or just plain old stupidity?I could have handled a room change, an apology and some effort to fix the issue... I got attitude, implication that I was wrong and stupidity.they certainly did not leave the light on for me....Holiday Inn Express... here I come.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r282995610-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>282995610</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Disney Trip</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel after having stayed there about 4 years ago when our family went to Universal Studios. This time we were going to Disneyland, which is about a seven minute drive from the hotel. There really aren't any complaints about this hotel, except for the fact that they have some construction going on, and there was noise even at 12am and started at about 6am. That was not appreciated, especially having been coming in late and very tired from a day at the park and wanting to get a little sleep before starting again the next day. 
+Something minor is that you can only have one device on wifi at a time, but since we were on vacation, who needs electronic devices on wifi? :) 
+Also, we asked that we not have any one enter the room to do any cleaning while we stayed there. We just asked for new towels each day, which they happily gave us. On our third day there, our room was cleaned and all of our belongings were placed strategically, mixing up everything that we had laid out for specific purposes. My friend stated that the manager at the front desk told her that one day that would not come in, but one day they would come in. I personally don't think that's necessary if the guest is asking you not to. I've had a terrible experience in the past where items...We stayed at this hotel after having stayed there about 4 years ago when our family went to Universal Studios. This time we were going to Disneyland, which is about a seven minute drive from the hotel. There really aren't any complaints about this hotel, except for the fact that they have some construction going on, and there was noise even at 12am and started at about 6am. That was not appreciated, especially having been coming in late and very tired from a day at the park and wanting to get a little sleep before starting again the next day. Something minor is that you can only have one device on wifi at a time, but since we were on vacation, who needs electronic devices on wifi? :) Also, we asked that we not have any one enter the room to do any cleaning while we stayed there. We just asked for new towels each day, which they happily gave us. On our third day there, our room was cleaned and all of our belongings were placed strategically, mixing up everything that we had laid out for specific purposes. My friend stated that the manager at the front desk told her that one day that would not come in, but one day they would come in. I personally don't think that's necessary if the guest is asking you not to. I've had a terrible experience in the past where items were stolen and I would just prefer it not be done while I am staying at certain places. Because of the fact that they didn't listen to our request, I probably won't be staying in this hotel again, but it's definitely not a horrible place. After this one, I'd rather just spend a little more for a little better.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel after having stayed there about 4 years ago when our family went to Universal Studios. This time we were going to Disneyland, which is about a seven minute drive from the hotel. There really aren't any complaints about this hotel, except for the fact that they have some construction going on, and there was noise even at 12am and started at about 6am. That was not appreciated, especially having been coming in late and very tired from a day at the park and wanting to get a little sleep before starting again the next day. 
+Something minor is that you can only have one device on wifi at a time, but since we were on vacation, who needs electronic devices on wifi? :) 
+Also, we asked that we not have any one enter the room to do any cleaning while we stayed there. We just asked for new towels each day, which they happily gave us. On our third day there, our room was cleaned and all of our belongings were placed strategically, mixing up everything that we had laid out for specific purposes. My friend stated that the manager at the front desk told her that one day that would not come in, but one day they would come in. I personally don't think that's necessary if the guest is asking you not to. I've had a terrible experience in the past where items...We stayed at this hotel after having stayed there about 4 years ago when our family went to Universal Studios. This time we were going to Disneyland, which is about a seven minute drive from the hotel. There really aren't any complaints about this hotel, except for the fact that they have some construction going on, and there was noise even at 12am and started at about 6am. That was not appreciated, especially having been coming in late and very tired from a day at the park and wanting to get a little sleep before starting again the next day. Something minor is that you can only have one device on wifi at a time, but since we were on vacation, who needs electronic devices on wifi? :) Also, we asked that we not have any one enter the room to do any cleaning while we stayed there. We just asked for new towels each day, which they happily gave us. On our third day there, our room was cleaned and all of our belongings were placed strategically, mixing up everything that we had laid out for specific purposes. My friend stated that the manager at the front desk told her that one day that would not come in, but one day they would come in. I personally don't think that's necessary if the guest is asking you not to. I've had a terrible experience in the past where items were stolen and I would just prefer it not be done while I am staying at certain places. Because of the fact that they didn't listen to our request, I probably won't be staying in this hotel again, but it's definitely not a horrible place. After this one, I'd rather just spend a little more for a little better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r262163004-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>262163004</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>not great, just good</t>
+  </si>
+  <si>
+    <t>Hey, the price was right, the room was clean and well-kept, we could breakfast right across the street. I'm fine with all that. We came in long after midnight and they'd kept our room; only, we had to check-out by noon.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r259761079-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>259761079</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Reasonable accommodation.</t>
+  </si>
+  <si>
+    <t>I stayed at motel 6 in March for 4 nights. The room was spacious and clean I had no issues with the sheets but I have to mention that we were not picky. "We used the room only for sleeping." Most of the day we were at the parks. One of the receptionists was good and very helpful I think his name was Raj. You have to understand that it is ok for its price. Also that the parks are not near no way you could walk the distance by car it took about 10-15 minutes. I recommend you stay with your family but have to drive to the parks.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at motel 6 in March for 4 nights. The room was spacious and clean I had no issues with the sheets but I have to mention that we were not picky. "We used the room only for sleeping." Most of the day we were at the parks. One of the receptionists was good and very helpful I think his name was Raj. You have to understand that it is ok for its price. Also that the parks are not near no way you could walk the distance by car it took about 10-15 minutes. I recommend you stay with your family but have to drive to the parks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r255864200-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>255864200</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Nice renovation gross sheets and blankets lazy manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived and at first it seemed like a nice hotel for the price then we noticed the sheets and blankets had several stains so we asked management to simply bring us clean ones next morning still no clean ones called again no luck getting clean ones. We have small children so at least bring clean ones for them.  I know no hotel is perfect but at least make an attempt to make things right </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r243784234-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>243784234</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Perfect for a trip to disneyland!</t>
+  </si>
+  <si>
+    <t>We love staying at this motel! It's inexpensive, clean and close enough to disneyland, not really walking distance but we park in disney parking anyways. This was our fourth stay and we'll be back soon. The only issue we had this stay was old leftovers in the fridge, gross but we weren't using the fridge anyways. All in all a nice, quiet, comfortable place to sleep!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r240615929-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>240615929</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>If you are going to the parks, stay here</t>
+  </si>
+  <si>
+    <t>So I was a bit worried when my partner said he booked a Motel 6 for our two night stay in Anaheim but he assured me after doing it several times before, there is no point staying somewhere nice and pricey when you are going to be spending ALL DAY at Disneyland and California Adventure Park.The hotel is exactly what you would think it is, small, very basic, but clean and friendly. It's a quiet hotel that is very family, I think 90% of the residents had the same idea we had, save a bit of money instead of paying the ridiculous amounts they charge for the hotels right next to, or in the parks.It took us about 10 minutes to walk to the parks each morning so for an additional 20 minutes a day we saved at least $400 for the two days....why not?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>So I was a bit worried when my partner said he booked a Motel 6 for our two night stay in Anaheim but he assured me after doing it several times before, there is no point staying somewhere nice and pricey when you are going to be spending ALL DAY at Disneyland and California Adventure Park.The hotel is exactly what you would think it is, small, very basic, but clean and friendly. It's a quiet hotel that is very family, I think 90% of the residents had the same idea we had, save a bit of money instead of paying the ridiculous amounts they charge for the hotels right next to, or in the parks.It took us about 10 minutes to walk to the parks each morning so for an additional 20 minutes a day we saved at least $400 for the two days....why not?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r226789145-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>226789145</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>This hotel is a bout 3 miles from Disneyland. The staff is friendly and the rooms are clean. They have a modern feel. I was pleasantly surprised. I've stayed in other Motel 6 and haven't been as satisfied as I am now.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r211600140-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>211600140</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>One step above the average Motel 6</t>
+  </si>
+  <si>
+    <t>This place is located within walking distance of Disneyland in Anaheim.  A shuttle bus runs every 20 or so minutes from the hotel to take you to the Disneyland Main Entrance.  You can purchase a $5 all day ride ticket at the front desk, or pay $3 cash per ride on the bus for anyone of the 10 routes leaving the Disneyland Main Gate stop once you get there.
+The Motel itself is based on a hotel design with multi-level layout.  It is a basic, but comfortable room design.  Actually a very good facility for the money you paid. There is a HD TV in the room.
+There is a swimmng pool, and a small snack area downstairs with vending machines selling drinks, sandwiches, and chips. Within about a half mile walk are numerous restaurants such as Johnny Rockets; Dennys; Ihop, Subway, and more expensive places to eat. A security guard walks a patrol around the property after dark.  The average rating is a camparison of other hotels in the area, and nothing else. This Motel 6 is far above the quality of average Motel 6's but probably average for this particular area.  It is spotlessly clean.  The people working at the front desk are A-1 for friendliness, and assistance.  "Victoria" in particular went far beyond the call of duty helping me and my co-worker in locating my company's authorizations for separate rooms...something that my company hadn't done properly.   We...This place is located within walking distance of Disneyland in Anaheim.  A shuttle bus runs every 20 or so minutes from the hotel to take you to the Disneyland Main Entrance.  You can purchase a $5 all day ride ticket at the front desk, or pay $3 cash per ride on the bus for anyone of the 10 routes leaving the Disneyland Main Gate stop once you get there.The Motel itself is based on a hotel design with multi-level layout.  It is a basic, but comfortable room design.  Actually a very good facility for the money you paid. There is a HD TV in the room.There is a swimmng pool, and a small snack area downstairs with vending machines selling drinks, sandwiches, and chips. Within about a half mile walk are numerous restaurants such as Johnny Rockets; Dennys; Ihop, Subway, and more expensive places to eat. A security guard walks a patrol around the property after dark.  The average rating is a camparison of other hotels in the area, and nothing else. This Motel 6 is far above the quality of average Motel 6's but probably average for this particular area.  It is spotlessly clean.  The people working at the front desk are A-1 for friendliness, and assistance.  "Victoria" in particular went far beyond the call of duty helping me and my co-worker in locating my company's authorizations for separate rooms...something that my company hadn't done properly.   We also used their FAX at no charge.  If your intent is to be in Anaheim to see Disnayland, and to have a room only to rest and sleep, then this Motel 6 is probably the best deal in the area.  The rooms are also well insulated against sound.  If I return to the area to see Disneyland as a tourist, I'll stay at this Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This place is located within walking distance of Disneyland in Anaheim.  A shuttle bus runs every 20 or so minutes from the hotel to take you to the Disneyland Main Entrance.  You can purchase a $5 all day ride ticket at the front desk, or pay $3 cash per ride on the bus for anyone of the 10 routes leaving the Disneyland Main Gate stop once you get there.
+The Motel itself is based on a hotel design with multi-level layout.  It is a basic, but comfortable room design.  Actually a very good facility for the money you paid. There is a HD TV in the room.
+There is a swimmng pool, and a small snack area downstairs with vending machines selling drinks, sandwiches, and chips. Within about a half mile walk are numerous restaurants such as Johnny Rockets; Dennys; Ihop, Subway, and more expensive places to eat. A security guard walks a patrol around the property after dark.  The average rating is a camparison of other hotels in the area, and nothing else. This Motel 6 is far above the quality of average Motel 6's but probably average for this particular area.  It is spotlessly clean.  The people working at the front desk are A-1 for friendliness, and assistance.  "Victoria" in particular went far beyond the call of duty helping me and my co-worker in locating my company's authorizations for separate rooms...something that my company hadn't done properly.   We...This place is located within walking distance of Disneyland in Anaheim.  A shuttle bus runs every 20 or so minutes from the hotel to take you to the Disneyland Main Entrance.  You can purchase a $5 all day ride ticket at the front desk, or pay $3 cash per ride on the bus for anyone of the 10 routes leaving the Disneyland Main Gate stop once you get there.The Motel itself is based on a hotel design with multi-level layout.  It is a basic, but comfortable room design.  Actually a very good facility for the money you paid. There is a HD TV in the room.There is a swimmng pool, and a small snack area downstairs with vending machines selling drinks, sandwiches, and chips. Within about a half mile walk are numerous restaurants such as Johnny Rockets; Dennys; Ihop, Subway, and more expensive places to eat. A security guard walks a patrol around the property after dark.  The average rating is a camparison of other hotels in the area, and nothing else. This Motel 6 is far above the quality of average Motel 6's but probably average for this particular area.  It is spotlessly clean.  The people working at the front desk are A-1 for friendliness, and assistance.  "Victoria" in particular went far beyond the call of duty helping me and my co-worker in locating my company's authorizations for separate rooms...something that my company hadn't done properly.   We also used their FAX at no charge.  If your intent is to be in Anaheim to see Disnayland, and to have a room only to rest and sleep, then this Motel 6 is probably the best deal in the area.  The rooms are also well insulated against sound.  If I return to the area to see Disneyland as a tourist, I'll stay at this Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r205856499-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>205856499</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know this is old but we loved it </t>
+  </si>
+  <si>
+    <t>Was so awesome love the new looks of the hotel and great big pool only drawbacks are yes no breakfast and pay for Internet. But hey we are near Disney land leave your work at home and come enjoy a amazing stay at a really reasonable price stayed for  a week and it was during summer and it was by far cheapest and we loved it thanks again motel 6 made me totally forget the stereotypes that come with your hotel chain recommend this place wholeheartedly and might stay there again next year always finding a reason to go on vacation.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r197855833-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>197855833</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Wow!  Super impressed!</t>
+  </si>
+  <si>
+    <t>I booked this motel for our Disneyland trip, looking for a good place to sleep at a good price.  We found it!  Our room was clean, HUGE and quiet.  It is a modern set up, no closet but there is a small space to hang a few things.  Beds are comfortable, bathroom was spacious....no complaints what so ever.  I recommend, wholeheartedly.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r182762706-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>182762706</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>no reason</t>
+  </si>
+  <si>
+    <t>Great room great price, great service.. friendly Just a great room for the price.. Just an all around great value and room Ive lived in anaheim most of my live and this hotel is a great improvement.. The service is wonderful I am alone he always puts me close to the front downstairs so i feel very safe, manager is friendly great to talk to helpful with anything you need.. Would stay any other place Hard to say 200 words when just great and friendly clean are all you need to say and reasonanable</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r179474347-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>179474347</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Amazing value for money.</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights recently after originally only booking for 2. The rooms were very spacious, clean and well maintained with good air con. A special mention must be given to Raj on the front desk who we quickly learnt was the manager. A happy guy who went above and beyond to help us with any questions, giving recommendations on where to eat and drink and even threw in a bit of footy banter. We will be back to buy him a drink or 2! I've never posted a trip adviser review before but after staying here it prompted me to. If you are looking for a place to stay in this area, this is the place. Keep up the good work! MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights recently after originally only booking for 2. The rooms were very spacious, clean and well maintained with good air con. A special mention must be given to Raj on the front desk who we quickly learnt was the manager. A happy guy who went above and beyond to help us with any questions, giving recommendations on where to eat and drink and even threw in a bit of footy banter. We will be back to buy him a drink or 2! I've never posted a trip adviser review before but after staying here it prompted me to. If you are looking for a place to stay in this area, this is the place. Keep up the good work! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r175782063-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>175782063</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable, a great place to stay.</t>
+  </si>
+  <si>
+    <t>I stay 300+ times in hotels yearly.  This hotel is in my top 10% for a hassle free, problem free stay.  The checkin was fast and efficient.  The manager told me about all the food places around the hotel, as well as the ones that deliver.  The room was clean, the beds comfortable and the A/C was ice cold.  Overall, a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r169083002-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>169083002</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Clean but sparse</t>
+  </si>
+  <si>
+    <t>The pros:  the room is clean and has been recently remodeled.  It has a very modern feel, with laminate wood flooring, new counters/sinks, etc.  The rate was reasonable, and it only took us about 10 minutes to get to Disneyland.The cons:  WiFi is only for one device, so if you have a phone and a laptop, you only get WiFi for one.   The laminate flooring can seem cold and not inviting.  There is no blow dryer!  I've never stayed anywhere that didn't provide a blow dryer.  No shampoo/conditioner provided-- I've never seen this either.  The soap was extremely puny, and almost didn't make it through our showers.  The water pressure was pretty bad in the shower.  Not in a great neighborhood.If we were returning to Disneyland, we would not stay here.  I'd rather pay a bit more, and be in a better area, closer to Disneyland, in a hotel that at least had the usual amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Anaheim, responded to this reviewResponded August 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2013</t>
+  </si>
+  <si>
+    <t>The pros:  the room is clean and has been recently remodeled.  It has a very modern feel, with laminate wood flooring, new counters/sinks, etc.  The rate was reasonable, and it only took us about 10 minutes to get to Disneyland.The cons:  WiFi is only for one device, so if you have a phone and a laptop, you only get WiFi for one.   The laminate flooring can seem cold and not inviting.  There is no blow dryer!  I've never stayed anywhere that didn't provide a blow dryer.  No shampoo/conditioner provided-- I've never seen this either.  The soap was extremely puny, and almost didn't make it through our showers.  The water pressure was pretty bad in the shower.  Not in a great neighborhood.If we were returning to Disneyland, we would not stay here.  I'd rather pay a bit more, and be in a better area, closer to Disneyland, in a hotel that at least had the usual amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r168802775-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>168802775</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Never again would I stay here</t>
+  </si>
+  <si>
+    <t>This was absolutely horrible.  I realize that it's a low rate room in comparison, but it still needs to feel clean.  When you first walk in, it appears to be very modern and spacious.  Once I looked closer I was horrified.  There was a wod of hair on the blanket on the bed, the bathroom walls were filled with mold, the mirror was filled with rust, there was hair on the floor and it was just gross.  It really needs to be repaired before anyone else stays in this room. I asked for clean blankets and they brought me a blanket filled with cigarette burns.   Very disappointing.     On a positive note, all the staff that I have felt with is very friendly and helpful.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This was absolutely horrible.  I realize that it's a low rate room in comparison, but it still needs to feel clean.  When you first walk in, it appears to be very modern and spacious.  Once I looked closer I was horrified.  There was a wod of hair on the blanket on the bed, the bathroom walls were filled with mold, the mirror was filled with rust, there was hair on the floor and it was just gross.  It really needs to be repaired before anyone else stays in this room. I asked for clean blankets and they brought me a blanket filled with cigarette burns.   Very disappointing.     On a positive note, all the staff that I have felt with is very friendly and helpful.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r159753922-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>159753922</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Just what we paid for</t>
+  </si>
+  <si>
+    <t>We spent 2 nights at the Motel 6 in Anaheim - 3 miles away from Disneyland.  The rooms are newly remodeled, with no carpet and raised beds - They look very modern, the room was clean, neat, and very spacious. The price was perfect, and the staff was very friendly and accomodating. We enjoyed our stay there and will do so again.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r153655171-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>153655171</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Very clean and quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally loved my stay here.  Felt very safe. Huge room and amazingly cleanI will stay here againOwners Raj and AJ checked us in.  Very nice.Rooms have been redone.  Bathrooms were huge.   Close to Disneyland </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r152758515-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>152758515</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Nice Property, Strange Service</t>
+  </si>
+  <si>
+    <t>This Motel 6 offers very clean, large rooms with the 'new decor' and king-sized beds, has a beautiful pool and hot-tub area and good location. When checked in, I requested two nights' stay. Front desk mistakenly only charged and authorized my key for one night. The next day management called my cell complaining that I'd left my things in the room past check-out. After explaining that I'd asked for a two-day stay but would stop by the desk to rectify the situation in about an hour management seemed dissatisfied and was very curt upon my arrival to correct the charges. Assuming they'd dealt with past guests who'd pushed the boundaries of checkout courtesy, I took it in stride. 
+Upon dropping in the following morning before heading to work, I asked to extend my stay for one more night and was immediately denied, told such an extension would require management approval, for which I would be required to wait until 9am to discuss or receive. I rushed up to my room and left with hastily packed bags, trying to remain prompt for the company with whom I'd contracted. In my haste swimwear was left in the room, which I returned to retrieve that evening after calling ahead. Management was at the desk again, and intentionally avoided me. A rather flamboyant, tanned gentleman courteously retrieved my swimsuit and wished me a fine day as the entire rest of staff, including management, quietly...This Motel 6 offers very clean, large rooms with the 'new decor' and king-sized beds, has a beautiful pool and hot-tub area and good location. When checked in, I requested two nights' stay. Front desk mistakenly only charged and authorized my key for one night. The next day management called my cell complaining that I'd left my things in the room past check-out. After explaining that I'd asked for a two-day stay but would stop by the desk to rectify the situation in about an hour management seemed dissatisfied and was very curt upon my arrival to correct the charges. Assuming they'd dealt with past guests who'd pushed the boundaries of checkout courtesy, I took it in stride. Upon dropping in the following morning before heading to work, I asked to extend my stay for one more night and was immediately denied, told such an extension would require management approval, for which I would be required to wait until 9am to discuss or receive. I rushed up to my room and left with hastily packed bags, trying to remain prompt for the company with whom I'd contracted. In my haste swimwear was left in the room, which I returned to retrieve that evening after calling ahead. Management was at the desk again, and intentionally avoided me. A rather flamboyant, tanned gentleman courteously retrieved my swimsuit and wished me a fine day as the entire rest of staff, including management, quietly walked back, away from the desk. With the exception of that one friendly employee, it was weird and rude treatment in a beautiful facility. My likelihood of return is not particularly good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This Motel 6 offers very clean, large rooms with the 'new decor' and king-sized beds, has a beautiful pool and hot-tub area and good location. When checked in, I requested two nights' stay. Front desk mistakenly only charged and authorized my key for one night. The next day management called my cell complaining that I'd left my things in the room past check-out. After explaining that I'd asked for a two-day stay but would stop by the desk to rectify the situation in about an hour management seemed dissatisfied and was very curt upon my arrival to correct the charges. Assuming they'd dealt with past guests who'd pushed the boundaries of checkout courtesy, I took it in stride. 
+Upon dropping in the following morning before heading to work, I asked to extend my stay for one more night and was immediately denied, told such an extension would require management approval, for which I would be required to wait until 9am to discuss or receive. I rushed up to my room and left with hastily packed bags, trying to remain prompt for the company with whom I'd contracted. In my haste swimwear was left in the room, which I returned to retrieve that evening after calling ahead. Management was at the desk again, and intentionally avoided me. A rather flamboyant, tanned gentleman courteously retrieved my swimsuit and wished me a fine day as the entire rest of staff, including management, quietly...This Motel 6 offers very clean, large rooms with the 'new decor' and king-sized beds, has a beautiful pool and hot-tub area and good location. When checked in, I requested two nights' stay. Front desk mistakenly only charged and authorized my key for one night. The next day management called my cell complaining that I'd left my things in the room past check-out. After explaining that I'd asked for a two-day stay but would stop by the desk to rectify the situation in about an hour management seemed dissatisfied and was very curt upon my arrival to correct the charges. Assuming they'd dealt with past guests who'd pushed the boundaries of checkout courtesy, I took it in stride. Upon dropping in the following morning before heading to work, I asked to extend my stay for one more night and was immediately denied, told such an extension would require management approval, for which I would be required to wait until 9am to discuss or receive. I rushed up to my room and left with hastily packed bags, trying to remain prompt for the company with whom I'd contracted. In my haste swimwear was left in the room, which I returned to retrieve that evening after calling ahead. Management was at the desk again, and intentionally avoided me. A rather flamboyant, tanned gentleman courteously retrieved my swimsuit and wished me a fine day as the entire rest of staff, including management, quietly walked back, away from the desk. With the exception of that one friendly employee, it was weird and rude treatment in a beautiful facility. My likelihood of return is not particularly good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r12325749-Motel_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>12325749</t>
+  </si>
+  <si>
+    <t>01/04/2008</t>
+  </si>
+  <si>
+    <t>Price matches quialty</t>
+  </si>
+  <si>
+    <t>We stayed here five nights and were quite comfortable. Yes, some of the furnishings are older, but that is to be expected for the price. The TV, fridge and microwave all worked fine. If price is a concern this place is not all that bad as the other reviews seem to make it.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1306,2033 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>197</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>210</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>227</v>
+      </c>
+      <c r="X29" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11384</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_520.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_520.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>BexW1984</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The receptionist at this place needs sacking, seriously. We booked two nights on booking.com and drove from San Fran to LA, arriving quite late at night. Had to speak to the guy through the night window, he rudely asked for our names, he said he didn't have our names down. So we brought up booking.com on our phone &amp; showed him the booking, he said he didn't care &amp; that he didn't have the booking. We explained that we had been driving for 8 hours &amp; we had the booking for him to see. He literally could not have been any ruder, said he did not have our booking. I asked if we could book for two nights &amp; he very bluntly said no &amp; walked away. Absolutely disgusting behaviour, do not stay at this motel!More</t>
   </si>
   <si>
+    <t>badrich94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r504220956-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We booked this hotel at the last minute. I booked a cheap room compared to other prices in the area.  However, they charge for WiFi and 5 bucks for the shuttle to Disneyland.  No breakfast.  They did have a decent vending machine that sold stuff to eat and provided 2 microwaves next to vending machines to heat up items like burritos.  the shower was terrible.  It had barely any water pressure.  The beds were old and you could tell you they were old spring beds.  The AC worked to cool the room.  the problem was that the AC didn't dehumidify so it was humid though cool in the room.  So the bed sheets felt a little damp.  Parking was easy.  Location in proximity to Disneyland was awesome.  The staff was very helpful, but they sounded frustrated that they couldn't do more it felt like.  Room and lobby were very clean.  The pool was nice and clean.More</t>
   </si>
   <si>
+    <t>raringt0g0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r485978154-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>Don't reserve w/ motel 6. A nightmare! I reserved 2 rooms online. they cancelled both while my friends were driving down from SF late at night. First, they said it was because it "was a 3rd party transaction and they don't take these" (though I made it from Motel 6's website, and it was clear I was the person who's cc it was, but not the person who would be checking in.)  After arguing about this absurdity, the manager said I could try the 800 no. They intervened and after over an hour on the phone, they re-reserved the two rooms (costing more and one room now had to be smoking, but I agreed). I had the 800 person even call the manager before i got off with her, to confirm we were again on. Then, three hours later the manager called again to say, again, he cancelled the reservations. This time he claimed it was because the visa had not gone through. This was a total fabrication. (Later, the 800 person at Motel 6 agreed it was likely because they overbooked or he was able to get more for a room.) I learned independently owned Motel 6's (which this is) are allowed to be very independent, ie, treat guests this way. Motel 6 referred me to "guest services" to resolve it, but oops, that dept is closed at nights and weekends (for a national motel chain!)! Of course it...Don't reserve w/ motel 6. A nightmare! I reserved 2 rooms online. they cancelled both while my friends were driving down from SF late at night. First, they said it was because it "was a 3rd party transaction and they don't take these" (though I made it from Motel 6's website, and it was clear I was the person who's cc it was, but not the person who would be checking in.)  After arguing about this absurdity, the manager said I could try the 800 no. They intervened and after over an hour on the phone, they re-reserved the two rooms (costing more and one room now had to be smoking, but I agreed). I had the 800 person even call the manager before i got off with her, to confirm we were again on. Then, three hours later the manager called again to say, again, he cancelled the reservations. This time he claimed it was because the visa had not gone through. This was a total fabrication. (Later, the 800 person at Motel 6 agreed it was likely because they overbooked or he was able to get more for a room.) I learned independently owned Motel 6's (which this is) are allowed to be very independent, ie, treat guests this way. Motel 6 referred me to "guest services" to resolve it, but oops, that dept is closed at nights and weekends (for a national motel chain!)! Of course it didn't help me that night and my friends were stuck when they hit the area with no motel to stay in.  When I called the next day guest relations,, they could care less about the inconvenience it caused but said she would "pass on my feedback"  My feedback - when you have a national chain which doesn't stand by any promises, if you're a traveler, go elsewhere,where they're professional. Silver lining: I found a national chain down there for slightly more money, way more amenities and the trip overall was much better than had they stayed at Motel 6.More</t>
   </si>
   <si>
+    <t>Harvestsmiles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r464649684-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Great location for going to Disneyland. Close enough we even stopped back at the hotel at lunchtime. Picked this because it was about half the price as Majestic which we had stayed at in December and that wasn't happening. Happy with Motel 6. Nice pool although we didn't use it because, well, DISNEYLAND!  But we had out pup with us so we needed a pet friendly and this was a decent enough room. Could have been a little cleaner/fresh but I think we opted for a popular room with "1st floor, pet friendly, near end of building" request. If you can go for a higher up room, the building was remodeled a couple years ago so maybe some better/less used rooms.Again, can't beat the location, if you have pets you can't beat the price (no pets fees, no parking fees! It adds up...) Disneyland has a daytime kennel just after you go through security ($20 a day and must visit and take dog out every 4 hours)A.C. worked good too. The other place didn't even have AC...Hope this helps you. Cheers.More</t>
   </si>
   <si>
+    <t>KaylaJuan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r447774092-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Paula M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r437618053-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Charles K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r398235842-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>To start off with the cleanliness was very high in my lists of YES. The reason for the three stars goes beyond the place being clean. It is nice and remodels with not a stitch of carpet. Laminate floors and very minimal room furniture. In fact the two queen room we were in was a waste of open space with only two places to sit besides the bed. The clean look and feel is great but on a hot day the a/c could barely keep the room below 80. That was exasperated by the unit not being on at all when we checked in and then turned off when the room was cleaned the next day. The only two negatives for us was the shower did not drain well leaving you standing in about 5 inches of water during your shower, and the beds themselves. I almost pulled the mattress off he pedestal and  just slept on the hard surface. It would have been more comfortable. Hard to sleep. Overall the room was clean and quiet. Could not find anyone to explain this to when we checked out so just went back to the room and dropped the keys inside and left. More</t>
   </si>
   <si>
+    <t>ChristaYb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r395308163-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>We decided to take a trip to Disneyland at the last minute. I'd read the reviews and wasn't too hopeful, but most of the hotels close to the park were sold out and this location had 2 rooms with 2 queen beds which is what we needed. We arrived before check in time, so I wasn't surprised that both of the rooms weren't ready. The guy that checked us in seemed bored, but was efficient so it was fine. He gave us the keys to both rooms rooms, but said to give housekeeping a half hour for the second room to be finished. The rooms felt quite large due to not having much furniture. There was a mini fridge and WiFi for 1 device per room, but no shampoo, conditioner, or lotion. Overall the rooms were neat, but the blankets had old stains and burn holes. Housekeeping was friendly and remembered to bring extra towels for our second night, so we didn't have to ask again. The property is about 10 minutes from the Disney parks, and near several fast food places, and a grocery store. We spent almost no time in the room, the rates were low, and it had a great location. That's what really saved the rating. More</t>
   </si>
   <si>
+    <t>ana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r389397418-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>My reservation was little bit confused but the gentleman that was working that night resolved and worked in the reservation cause I was with my kids and we had a long day walking at disneyland the only thing was to relax and sleep. The gentleman find us a room with 2 beds the room was clean organize and neat. I was so happy staying there.</t>
   </si>
   <si>
+    <t>Anna C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r377794098-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>I accidentally booked our room for the wrong night, showed up after a long day at the amusement park expecting to have a room and was told that it was reserved for the night before we got there. I was devastated (and exhausted). Without me saying anything or even asking for help figuring out what to do Michelle was on the phone with the manager trying to figure out how to help me get a room for the night and get the money for the no-show switched to tonight. Within 5 minutes we had our room key and we're heading off to bed. Our room is big, clean, and comfy. I am so thankful to Oscar and Michelle who really made our night wonderful. Thank you! This is where we are staying when we come to LAMore</t>
   </si>
   <si>
+    <t>Rachael Louise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r347323045-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jason H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r334520256-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t xml:space="preserve">A ten minute walk from Disney Land, this was a great stay for a reasonable price. Walking distance from many nice restaurants and shopping districts. As well as views of the Disney fire works from the hotel pool. Was easily accessible to come to and from the hotel during the day while at Disney. </t>
   </si>
   <si>
+    <t>Israa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r296192359-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t xml:space="preserve">Not bad rooms. Clean but not very comfy. I found a cricket walking on the wall. Not very safe I think. Someone was hiding in the laundry room. I was trying to get my cloths from dryer and I noticed one guy in but was more like a homeless. One night we cam back at night and they checked us out... We couldn't use the keys so we went to them and they apologized for making a mistake. </t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r291917595-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -439,6 +481,9 @@
   </si>
   <si>
     <t>Came back after a full day at vidicon with my daughter.  Room had cigarette butts outside and the door was open.  Room smelled like cigarettes. Tried to air out the room, gave up and went to complain.  Roj the night manager fired back that I was in the room for 20 minutes, implying the complaint was false.stay there for another 3 nights with my daughter? nope.I decided to check out and find another motel.  Got serious attitude from Roj regarding refund, and there was major confusion on which credit to refund.  I asked Roj what the last 4 digits of the card used (honestly didn't remember) and gave him the card for refund - he claimed it was the wrong one.  but HE gave me the last 4.... scam? theft? or just plain old stupidity?I could have handled a room change, an apology and some effort to fix the issue... I got attitude, implication that I was wrong and stupidity.they certainly did not leave the light on for me....Holiday Inn Express... here I come.More</t>
+  </si>
+  <si>
+    <t>Chanel L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r282995610-Motel_6_Anaheim-Anaheim_California.html</t>
@@ -466,6 +511,9 @@
 Also, we asked that we not have any one enter the room to do any cleaning while we stayed there. We just asked for new towels each day, which they happily gave us. On our third day there, our room was cleaned and all of our belongings were placed strategically, mixing up everything that we had laid out for specific purposes. My friend stated that the manager at the front desk told her that one day that would not come in, but one day they would come in. I personally don't think that's necessary if the guest is asking you not to. I've had a terrible experience in the past where items...We stayed at this hotel after having stayed there about 4 years ago when our family went to Universal Studios. This time we were going to Disneyland, which is about a seven minute drive from the hotel. There really aren't any complaints about this hotel, except for the fact that they have some construction going on, and there was noise even at 12am and started at about 6am. That was not appreciated, especially having been coming in late and very tired from a day at the park and wanting to get a little sleep before starting again the next day. Something minor is that you can only have one device on wifi at a time, but since we were on vacation, who needs electronic devices on wifi? :) Also, we asked that we not have any one enter the room to do any cleaning while we stayed there. We just asked for new towels each day, which they happily gave us. On our third day there, our room was cleaned and all of our belongings were placed strategically, mixing up everything that we had laid out for specific purposes. My friend stated that the manager at the front desk told her that one day that would not come in, but one day they would come in. I personally don't think that's necessary if the guest is asking you not to. I've had a terrible experience in the past where items were stolen and I would just prefer it not be done while I am staying at certain places. Because of the fact that they didn't listen to our request, I probably won't be staying in this hotel again, but it's definitely not a horrible place. After this one, I'd rather just spend a little more for a little better.More</t>
   </si>
   <si>
+    <t>harrie_v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r262163004-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -484,6 +532,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Mfaroukabdulla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r259761079-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -502,6 +553,9 @@
     <t>I stayed at motel 6 in March for 4 nights. The room was spacious and clean I had no issues with the sheets but I have to mention that we were not picky. "We used the room only for sleeping." Most of the day we were at the parks. One of the receptionists was good and very helpful I think his name was Raj. You have to understand that it is ok for its price. Also that the parks are not near no way you could walk the distance by car it took about 10-15 minutes. I recommend you stay with your family but have to drive to the parks.More</t>
   </si>
   <si>
+    <t>Shae B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r255864200-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -517,6 +571,9 @@
     <t xml:space="preserve">We arrived and at first it seemed like a nice hotel for the price then we noticed the sheets and blankets had several stains so we asked management to simply bring us clean ones next morning still no clean ones called again no luck getting clean ones. We have small children so at least bring clean ones for them.  I know no hotel is perfect but at least make an attempt to make things right </t>
   </si>
   <si>
+    <t>mamalad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r243784234-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -532,6 +589,9 @@
     <t>We love staying at this motel! It's inexpensive, clean and close enough to disneyland, not really walking distance but we park in disney parking anyways. This was our fourth stay and we'll be back soon. The only issue we had this stay was old leftovers in the fridge, gross but we weren't using the fridge anyways. All in all a nice, quiet, comfortable place to sleep!</t>
   </si>
   <si>
+    <t>Alex W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r240615929-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -553,6 +613,9 @@
     <t>So I was a bit worried when my partner said he booked a Motel 6 for our two night stay in Anaheim but he assured me after doing it several times before, there is no point staying somewhere nice and pricey when you are going to be spending ALL DAY at Disneyland and California Adventure Park.The hotel is exactly what you would think it is, small, very basic, but clean and friendly. It's a quiet hotel that is very family, I think 90% of the residents had the same idea we had, save a bit of money instead of paying the ridiculous amounts they charge for the hotels right next to, or in the parks.It took us about 10 minutes to walk to the parks each morning so for an additional 20 minutes a day we saved at least $400 for the two days....why not?More</t>
   </si>
   <si>
+    <t>Mayra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r226789145-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -569,6 +632,9 @@
   </si>
   <si>
     <t>August 2014</t>
+  </si>
+  <si>
+    <t>_douglaswr73</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r211600140-Motel_6_Anaheim-Anaheim_California.html</t>
@@ -599,6 +665,9 @@
 There is a swimmng pool, and a small snack area downstairs with vending machines selling drinks, sandwiches, and chips. Within about a half mile walk are numerous restaurants such as Johnny Rockets; Dennys; Ihop, Subway, and more expensive places to eat. A security guard walks a patrol around the property after dark.  The average rating is a camparison of other hotels in the area, and nothing else. This Motel 6 is far above the quality of average Motel 6's but probably average for this particular area.  It is spotlessly clean.  The people working at the front desk are A-1 for friendliness, and assistance.  "Victoria" in particular went far beyond the call of duty helping me and my co-worker in locating my company's authorizations for separate rooms...something that my company hadn't done properly.   We...This place is located within walking distance of Disneyland in Anaheim.  A shuttle bus runs every 20 or so minutes from the hotel to take you to the Disneyland Main Entrance.  You can purchase a $5 all day ride ticket at the front desk, or pay $3 cash per ride on the bus for anyone of the 10 routes leaving the Disneyland Main Gate stop once you get there.The Motel itself is based on a hotel design with multi-level layout.  It is a basic, but comfortable room design.  Actually a very good facility for the money you paid. There is a HD TV in the room.There is a swimmng pool, and a small snack area downstairs with vending machines selling drinks, sandwiches, and chips. Within about a half mile walk are numerous restaurants such as Johnny Rockets; Dennys; Ihop, Subway, and more expensive places to eat. A security guard walks a patrol around the property after dark.  The average rating is a camparison of other hotels in the area, and nothing else. This Motel 6 is far above the quality of average Motel 6's but probably average for this particular area.  It is spotlessly clean.  The people working at the front desk are A-1 for friendliness, and assistance.  "Victoria" in particular went far beyond the call of duty helping me and my co-worker in locating my company's authorizations for separate rooms...something that my company hadn't done properly.   We also used their FAX at no charge.  If your intent is to be in Anaheim to see Disnayland, and to have a room only to rest and sleep, then this Motel 6 is probably the best deal in the area.  The rooms are also well insulated against sound.  If I return to the area to see Disneyland as a tourist, I'll stay at this Motel 6.More</t>
   </si>
   <si>
+    <t>Bellasdad34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r205856499-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -620,6 +689,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>princessrtk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r197855833-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -638,6 +710,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Sharon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r182762706-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -659,6 +734,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>J_dizzle85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r179474347-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -677,6 +755,9 @@
     <t>Stayed here for 3 nights recently after originally only booking for 2. The rooms were very spacious, clean and well maintained with good air con. A special mention must be given to Raj on the front desk who we quickly learnt was the manager. A happy guy who went above and beyond to help us with any questions, giving recommendations on where to eat and drink and even threw in a bit of footy banter. We will be back to buy him a drink or 2! I've never posted a trip adviser review before but after staying here it prompted me to. If you are looking for a place to stay in this area, this is the place. Keep up the good work! More</t>
   </si>
   <si>
+    <t>ChuckMosher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r175782063-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -692,6 +773,9 @@
     <t>I stay 300+ times in hotels yearly.  This hotel is in my top 10% for a hassle free, problem free stay.  The checkin was fast and efficient.  The manager told me about all the food places around the hotel, as well as the ones that deliver.  The room was clean, the beds comfortable and the A/C was ice cold.  Overall, a great place to stay.</t>
   </si>
   <si>
+    <t>cruiserCa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r169083002-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -716,6 +800,9 @@
     <t>The pros:  the room is clean and has been recently remodeled.  It has a very modern feel, with laminate wood flooring, new counters/sinks, etc.  The rate was reasonable, and it only took us about 10 minutes to get to Disneyland.The cons:  WiFi is only for one device, so if you have a phone and a laptop, you only get WiFi for one.   The laminate flooring can seem cold and not inviting.  There is no blow dryer!  I've never stayed anywhere that didn't provide a blow dryer.  No shampoo/conditioner provided-- I've never seen this either.  The soap was extremely puny, and almost didn't make it through our showers.  The water pressure was pretty bad in the shower.  Not in a great neighborhood.If we were returning to Disneyland, we would not stay here.  I'd rather pay a bit more, and be in a better area, closer to Disneyland, in a hotel that at least had the usual amenities.More</t>
   </si>
   <si>
+    <t>tzdaisy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r168802775-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -734,6 +821,9 @@
     <t>This was absolutely horrible.  I realize that it's a low rate room in comparison, but it still needs to feel clean.  When you first walk in, it appears to be very modern and spacious.  Once I looked closer I was horrified.  There was a wod of hair on the blanket on the bed, the bathroom walls were filled with mold, the mirror was filled with rust, there was hair on the floor and it was just gross.  It really needs to be repaired before anyone else stays in this room. I asked for clean blankets and they brought me a blanket filled with cigarette burns.   Very disappointing.     On a positive note, all the staff that I have felt with is very friendly and helpful.  More</t>
   </si>
   <si>
+    <t>browncl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r159753922-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -752,6 +842,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Nancy831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r153655171-Motel_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -765,6 +858,9 @@
   </si>
   <si>
     <t xml:space="preserve">Totally loved my stay here.  Felt very safe. Huge room and amazingly cleanI will stay here againOwners Raj and AJ checked us in.  Very nice.Rooms have been redone.  Bathrooms were huge.   Close to Disneyland </t>
+  </si>
+  <si>
+    <t>Dunebuggy4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r152758515-Motel_6_Anaheim-Anaheim_California.html</t>
@@ -788,6 +884,9 @@
   <si>
     <t>This Motel 6 offers very clean, large rooms with the 'new decor' and king-sized beds, has a beautiful pool and hot-tub area and good location. When checked in, I requested two nights' stay. Front desk mistakenly only charged and authorized my key for one night. The next day management called my cell complaining that I'd left my things in the room past check-out. After explaining that I'd asked for a two-day stay but would stop by the desk to rectify the situation in about an hour management seemed dissatisfied and was very curt upon my arrival to correct the charges. Assuming they'd dealt with past guests who'd pushed the boundaries of checkout courtesy, I took it in stride. 
 Upon dropping in the following morning before heading to work, I asked to extend my stay for one more night and was immediately denied, told such an extension would require management approval, for which I would be required to wait until 9am to discuss or receive. I rushed up to my room and left with hastily packed bags, trying to remain prompt for the company with whom I'd contracted. In my haste swimwear was left in the room, which I returned to retrieve that evening after calling ahead. Management was at the desk again, and intentionally avoided me. A rather flamboyant, tanned gentleman courteously retrieved my swimsuit and wished me a fine day as the entire rest of staff, including management, quietly...This Motel 6 offers very clean, large rooms with the 'new decor' and king-sized beds, has a beautiful pool and hot-tub area and good location. When checked in, I requested two nights' stay. Front desk mistakenly only charged and authorized my key for one night. The next day management called my cell complaining that I'd left my things in the room past check-out. After explaining that I'd asked for a two-day stay but would stop by the desk to rectify the situation in about an hour management seemed dissatisfied and was very curt upon my arrival to correct the charges. Assuming they'd dealt with past guests who'd pushed the boundaries of checkout courtesy, I took it in stride. Upon dropping in the following morning before heading to work, I asked to extend my stay for one more night and was immediately denied, told such an extension would require management approval, for which I would be required to wait until 9am to discuss or receive. I rushed up to my room and left with hastily packed bags, trying to remain prompt for the company with whom I'd contracted. In my haste swimwear was left in the room, which I returned to retrieve that evening after calling ahead. Management was at the desk again, and intentionally avoided me. A rather flamboyant, tanned gentleman courteously retrieved my swimsuit and wished me a fine day as the entire rest of staff, including management, quietly walked back, away from the desk. With the exception of that one friendly employee, it was weird and rude treatment in a beautiful facility. My likelihood of return is not particularly good.More</t>
+  </si>
+  <si>
+    <t>NewarkDan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d279768-r12325749-Motel_6_Anaheim-Anaheim_California.html</t>
@@ -1310,43 +1409,47 @@
       <c r="A2" t="n">
         <v>11384</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1364,56 +1467,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11384</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1431,50 +1538,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11384</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1488,50 +1599,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11384</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1545,50 +1660,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11384</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1602,50 +1721,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11384</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1663,50 +1786,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11384</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1720,50 +1847,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11384</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1777,50 +1908,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11384</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1834,50 +1969,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11384</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1895,50 +2034,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11384</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1952,50 +2095,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11384</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2009,41 +2156,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11384</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -2062,50 +2213,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11384</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2121,56 +2276,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11384</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2190,50 +2349,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11384</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2251,41 +2414,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11384</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2304,41 +2471,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11384</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -2367,41 +2538,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11384</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -2430,50 +2605,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11384</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2491,50 +2670,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11384</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2548,50 +2731,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11384</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2615,50 +2802,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11384</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2672,50 +2863,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11384</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2739,50 +2934,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11384</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2806,41 +3005,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11384</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -2869,41 +3072,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11384</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -2932,50 +3139,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11384</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -2997,47 +3208,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11384</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -3066,50 +3281,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11384</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3133,41 +3352,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>11384</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3196,50 +3419,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>11384</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3263,50 +3490,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>11384</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3330,7 +3561,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
